--- a/FishLandings/data/market_value.xlsx
+++ b/FishLandings/data/market_value.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmastrand/MyProjects/Kenya_SamakiSalama/FishLandings/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D718220-918F-7C42-92F3-E6B0A9466D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2BE899-EA43-0243-B23F-7E7FE8B92D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5560" yWindow="5180" windowWidth="28040" windowHeight="14980" xr2:uid="{425F7A92-69B6-BE4D-922C-C6B01EDB871D}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>Category</t>
   </si>
@@ -199,6 +199,21 @@
   </si>
   <si>
     <t>Common_name</t>
+  </si>
+  <si>
+    <t>Gerreidae</t>
+  </si>
+  <si>
+    <t>Clupeidae</t>
+  </si>
+  <si>
+    <t>Trichiuridae</t>
+  </si>
+  <si>
+    <t>Market_value_USD</t>
+  </si>
+  <si>
+    <t>Market_value_KES</t>
   </si>
 </sst>
 </file>
@@ -559,312 +574,408 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF95644-85CA-AA45-8B84-3E84C157ED8B}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
-    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="2" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>350</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>350</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>350</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>350</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>250</v>
+      </c>
+      <c r="D6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>250</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8">
         <v>2.5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>300</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
       <c r="B9">
         <v>2.5</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>300</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
       <c r="B10">
         <v>2.5</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>300</v>
+      </c>
+      <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11">
         <v>2.5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>300</v>
+      </c>
+      <c r="D11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
       <c r="B12">
         <v>2.5</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>300</v>
+      </c>
+      <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
       <c r="B13">
         <v>2.5</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>300</v>
+      </c>
+      <c r="D13" t="s">
         <v>34</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>36</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>36</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>36</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
         <v>41</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>36</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
         <v>43</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>36</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" t="s">
         <v>45</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" t="s">
         <v>47</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
         <v>49</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>36</v>
       </c>
       <c r="B21">
         <v>0</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
         <v>51</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>250</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>250</v>
+      </c>
+      <c r="D23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>250</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
